--- a/data/trans_orig/P55S_R-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P55S_R-Dificultad-trans_orig.xlsx
@@ -747,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>6290</v>
+        <v>5447</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04573354965705349</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1609110714170428</v>
+        <v>0.1393538314498207</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>19</v>
@@ -765,19 +765,19 @@
         <v>19280</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>11946</v>
+        <v>11908</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>27102</v>
+        <v>27392</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1731361047159652</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1072824532833914</v>
+        <v>0.1069330065006097</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2433827667988181</v>
+        <v>0.2459894975883434</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>21</v>
@@ -786,19 +786,19 @@
         <v>21067</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>13937</v>
+        <v>13765</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>29856</v>
+        <v>30263</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1400325678434034</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.09263723985128111</v>
+        <v>0.09149654886072853</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1984460509876169</v>
+        <v>0.2011564182196288</v>
       </c>
     </row>
     <row r="5">
@@ -828,19 +828,19 @@
         <v>5187</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>2010</v>
+        <v>2025</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>10859</v>
+        <v>11453</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.04657973650130209</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01805003236194709</v>
+        <v>0.01818403513379824</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.0975136318364962</v>
+        <v>0.102847978651661</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>5</v>
@@ -849,19 +849,19 @@
         <v>5187</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1872</v>
+        <v>1984</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>11406</v>
+        <v>10782</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.03447672942995994</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01244255875543039</v>
+        <v>0.01319006548247211</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.07581182407272205</v>
+        <v>0.07166314955383027</v>
       </c>
     </row>
     <row r="6">
@@ -878,19 +878,19 @@
         <v>35515</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>31006</v>
+        <v>30786</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>38114</v>
+        <v>38176</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.9085159053383551</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.7931647077336383</v>
+        <v>0.7875495558605633</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9750007736320598</v>
+        <v>0.976589752879134</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>72</v>
@@ -899,19 +899,19 @@
         <v>77572</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>66420</v>
+        <v>67220</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>86319</v>
+        <v>87030</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.6966149980629449</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.5964683095941099</v>
+        <v>0.6036552035496222</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.7751686156869424</v>
+        <v>0.7815544575765827</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>111</v>
@@ -920,19 +920,19 @@
         <v>113087</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>101532</v>
+        <v>101245</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>122090</v>
+        <v>122436</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.7516740939662979</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.6748681029384782</v>
+        <v>0.6729603506989174</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.811517469701432</v>
+        <v>0.8138146988943178</v>
       </c>
     </row>
     <row r="7">
@@ -952,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>6200</v>
+        <v>6542</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04575054500459141</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1585978493630217</v>
+        <v>0.1673572060163784</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>9</v>
@@ -970,19 +970,19 @@
         <v>9317</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>4717</v>
+        <v>4656</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>17378</v>
+        <v>16708</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.08366916071978776</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04236156001850636</v>
+        <v>0.04180876484001005</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1560624452413188</v>
+        <v>0.1500405162540258</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>11</v>
@@ -991,19 +991,19 @@
         <v>11105</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>5602</v>
+        <v>5633</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>18542</v>
+        <v>18027</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.07381660876033866</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03723398647400987</v>
+        <v>0.03744273698658022</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1232429850553748</v>
+        <v>0.1198233274515379</v>
       </c>
     </row>
     <row r="8">
@@ -1095,19 +1095,19 @@
         <v>8811</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>4205</v>
+        <v>4292</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>14756</v>
+        <v>14315</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1754477813037151</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.08372598346780985</v>
+        <v>0.08547215721788452</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2938434676779875</v>
+        <v>0.2850574035827176</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>10</v>
@@ -1116,19 +1116,19 @@
         <v>10703</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>5453</v>
+        <v>5365</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>17903</v>
+        <v>17430</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1805733835148498</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.09200714912311622</v>
+        <v>0.09051356900217489</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.3020506506329274</v>
+        <v>0.2940655036675663</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>20</v>
@@ -1137,19 +1137,19 @@
         <v>19513</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>12749</v>
+        <v>12803</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>28692</v>
+        <v>27859</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1782224812858685</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1164413821364324</v>
+        <v>0.1169343257138631</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2620536463904356</v>
+        <v>0.2544444534768942</v>
       </c>
     </row>
     <row r="10">
@@ -1179,19 +1179,19 @@
         <v>3400</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>9020</v>
+        <v>8967</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.05736445198570125</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01789674663658015</v>
+        <v>0.0178875374650956</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1521812531068878</v>
+        <v>0.1512871584282775</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>3</v>
@@ -1200,19 +1200,19 @@
         <v>3400</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>0</v>
+        <v>1071</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>8874</v>
+        <v>8810</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0310537449736519</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0</v>
+        <v>0.009781830521942609</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.08104867577870975</v>
+        <v>0.08046322550721925</v>
       </c>
     </row>
     <row r="11">
@@ -1229,19 +1229,19 @@
         <v>36761</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>29847</v>
+        <v>30456</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>42365</v>
+        <v>42173</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7320373289448088</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5943511888094838</v>
+        <v>0.606466137550392</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8436118679501725</v>
+        <v>0.839804857261621</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>40</v>
@@ -1250,19 +1250,19 @@
         <v>42453</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>34874</v>
+        <v>35492</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>48855</v>
+        <v>48728</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7162457866873341</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5883738923455136</v>
+        <v>0.5988135987691501</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8242705369439731</v>
+        <v>0.8221145360057478</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>79</v>
@@ -1271,19 +1271,19 @@
         <v>79214</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>69153</v>
+        <v>69411</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>87163</v>
+        <v>87069</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7234887154911929</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6316003340956193</v>
+        <v>0.6339510466202272</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7960921462816886</v>
+        <v>0.7952342910783979</v>
       </c>
     </row>
     <row r="12">
@@ -1300,19 +1300,19 @@
         <v>4646</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1059</v>
+        <v>1065</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>10565</v>
+        <v>10905</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.09251488975147611</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.02108459956064723</v>
+        <v>0.02120211361784931</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2103736097044792</v>
+        <v>0.2171584944416892</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>3</v>
@@ -1321,19 +1321,19 @@
         <v>2716</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>740</v>
+        <v>730</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>7870</v>
+        <v>8084</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.04581637781211489</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01248236269205314</v>
+        <v>0.01231573071015742</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1327735394320236</v>
+        <v>0.1363970989846983</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>7</v>
@@ -1342,19 +1342,19 @@
         <v>7361</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>2780</v>
+        <v>3438</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>14502</v>
+        <v>15788</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.06723505824928672</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.02538807454634689</v>
+        <v>0.03140093355762729</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1324544784607169</v>
+        <v>0.1441976058322786</v>
       </c>
     </row>
     <row r="13">
@@ -1449,7 +1449,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>4549</v>
+        <v>4978</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.04110681679646425</v>
@@ -1458,7 +1458,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1957774211139748</v>
+        <v>0.2142054566649469</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>11</v>
@@ -1467,19 +1467,19 @@
         <v>12726</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>6877</v>
+        <v>6756</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>19157</v>
+        <v>19839</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3049478450974704</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1647915513691866</v>
+        <v>0.1618816786369865</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4590591287639102</v>
+        <v>0.4753937653322222</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>12</v>
@@ -1488,19 +1488,19 @@
         <v>13681</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>7615</v>
+        <v>7223</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>21655</v>
+        <v>21236</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2105791828761256</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1172052417788655</v>
+        <v>0.1111689268308559</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3333080629214366</v>
+        <v>0.3268521387487375</v>
       </c>
     </row>
     <row r="15">
@@ -1533,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>4393</v>
+        <v>4845</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.02538582088513607</v>
@@ -1542,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1052680379188917</v>
+        <v>0.1161039874204159</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>1</v>
@@ -1554,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>5332</v>
+        <v>5745</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.01630601259395594</v>
@@ -1563,7 +1563,7 @@
         <v>0</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.0820731769894901</v>
+        <v>0.08842846869958698</v>
       </c>
     </row>
     <row r="16">
@@ -1580,7 +1580,7 @@
         <v>22283</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>18689</v>
+        <v>18260</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>23238</v>
@@ -1589,7 +1589,7 @@
         <v>0.9588931832035358</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8042225788860254</v>
+        <v>0.7857945433350534</v>
       </c>
       <c r="I16" s="6" t="n">
         <v>1</v>
@@ -1601,19 +1601,19 @@
         <v>24767</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>17713</v>
+        <v>18548</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>30975</v>
+        <v>31512</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5934722636198307</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4244451982746655</v>
+        <v>0.4444474178839288</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.742225846495004</v>
+        <v>0.7551140307965096</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>44</v>
@@ -1622,19 +1622,19 @@
         <v>47050</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>38899</v>
+        <v>39083</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>53775</v>
+        <v>53978</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.724173252586058</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5987214129957719</v>
+        <v>0.6015498805623953</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8276828501075366</v>
+        <v>0.8308155612724717</v>
       </c>
     </row>
     <row r="17">
@@ -1664,19 +1664,19 @@
         <v>3180</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>904</v>
+        <v>917</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>8176</v>
+        <v>7750</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.07619407039756278</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.02165148049600105</v>
+        <v>0.0219641523179665</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1959162864025186</v>
+        <v>0.1857116646579359</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>3</v>
@@ -1685,19 +1685,19 @@
         <v>3180</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>905</v>
+        <v>910</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>9327</v>
+        <v>8233</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.04894155194386044</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.0139306298958413</v>
+        <v>0.01401010897438656</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1435638446259855</v>
+        <v>0.1267141745709615</v>
       </c>
     </row>
     <row r="18">
@@ -1792,7 +1792,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>5235</v>
+        <v>4292</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.106364541712279</v>
@@ -1801,7 +1801,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.5273545798048576</v>
+        <v>0.432406465874352</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>4</v>
@@ -1810,19 +1810,19 @@
         <v>4343</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>1067</v>
+        <v>1131</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>7833</v>
+        <v>8423</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3616748516151616</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.0888246481926824</v>
+        <v>0.09417559998365115</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.6522738186299938</v>
+        <v>0.7014337225156713</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>5</v>
@@ -1831,19 +1831,19 @@
         <v>5399</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>2159</v>
+        <v>2091</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>10657</v>
+        <v>10807</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2461274471721999</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.09840969793831258</v>
+        <v>0.09532217963513277</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4858505883574113</v>
+        <v>0.4926809063280352</v>
       </c>
     </row>
     <row r="20">
@@ -1876,7 +1876,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>4700</v>
+        <v>6509</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.09297866593307798</v>
@@ -1885,7 +1885,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3913709542926981</v>
+        <v>0.5420832998320788</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1</v>
@@ -1897,7 +1897,7 @@
         <v>0</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>5411</v>
+        <v>5618</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.05089872203569645</v>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2466815512017948</v>
+        <v>0.2561142331154898</v>
       </c>
     </row>
     <row r="21">
@@ -1923,7 +1923,7 @@
         <v>8871</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>4692</v>
+        <v>5635</v>
       </c>
       <c r="F21" s="5" t="n">
         <v>9927</v>
@@ -1932,7 +1932,7 @@
         <v>0.893635458287721</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.4726454201951411</v>
+        <v>0.5675935341256481</v>
       </c>
       <c r="I21" s="6" t="n">
         <v>1</v>
@@ -1944,19 +1944,19 @@
         <v>6549</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>3075</v>
+        <v>3044</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>9941</v>
+        <v>9855</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.5453464824517604</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2560406143453463</v>
+        <v>0.2534578779559881</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.8278505639261997</v>
+        <v>0.820732322433241</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>15</v>
@@ -1965,19 +1965,19 @@
         <v>15420</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>10461</v>
+        <v>10094</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>18817</v>
+        <v>18830</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.7029738307921037</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.4769136315771999</v>
+        <v>0.4601982867450668</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.8578534107661152</v>
+        <v>0.8584351361951039</v>
       </c>
     </row>
     <row r="22">
@@ -2116,19 +2116,19 @@
         <v>12610</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>7069</v>
+        <v>7075</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>20182</v>
+        <v>20810</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.102956751831849</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.05771596208685408</v>
+        <v>0.05776785892581318</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1647829522185819</v>
+        <v>0.1699100729142438</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>44</v>
@@ -2137,19 +2137,19 @@
         <v>47051</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>34783</v>
+        <v>36085</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>61096</v>
+        <v>60933</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2097081967739063</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.155026820850361</v>
+        <v>0.1608306521195767</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2723057072192727</v>
+        <v>0.2715787062123277</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>58</v>
@@ -2158,19 +2158,19 @@
         <v>59661</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>47204</v>
+        <v>46713</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>75268</v>
+        <v>75032</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1720126915732034</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1360969865330632</v>
+        <v>0.1346804852031487</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2170099674799646</v>
+        <v>0.2163309222140749</v>
       </c>
     </row>
     <row r="25">
@@ -2200,19 +2200,19 @@
         <v>10763</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>6102</v>
+        <v>5431</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>19477</v>
+        <v>18733</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.04796993811643872</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02719701007969295</v>
+        <v>0.02420724724730321</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.08681026918224127</v>
+        <v>0.08349283680978768</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>10</v>
@@ -2221,19 +2221,19 @@
         <v>10763</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>5337</v>
+        <v>5387</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>19635</v>
+        <v>18496</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.03103104747447037</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01538783696116697</v>
+        <v>0.01553042369505689</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.0566098250590577</v>
+        <v>0.05332765453409531</v>
       </c>
     </row>
     <row r="26">
@@ -2250,19 +2250,19 @@
         <v>103430</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>94910</v>
+        <v>93783</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>110194</v>
+        <v>110024</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8445069859073674</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7749429853228835</v>
+        <v>0.7657389530310944</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8997341091364996</v>
+        <v>0.8983443755544883</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>140</v>
@@ -2271,19 +2271,19 @@
         <v>151339</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>136131</v>
+        <v>135644</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>165402</v>
+        <v>165713</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.6745205760018652</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6067345072459447</v>
+        <v>0.604566888484567</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7371960491958405</v>
+        <v>0.738581300616629</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>249</v>
@@ -2292,19 +2292,19 @@
         <v>254770</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>237953</v>
+        <v>237212</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>269411</v>
+        <v>270880</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.7345452773267014</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6860567534092157</v>
+        <v>0.6839205550277262</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7767563334933947</v>
+        <v>0.7809915929588765</v>
       </c>
     </row>
     <row r="27">
@@ -2321,19 +2321,19 @@
         <v>6434</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>2736</v>
+        <v>2800</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>15021</v>
+        <v>13806</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.0525362622607836</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.0223434027864206</v>
+        <v>0.02286311552030676</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1226491824784194</v>
+        <v>0.1127283112885371</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>15</v>
@@ -2342,19 +2342,19 @@
         <v>15212</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>9595</v>
+        <v>9130</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>24640</v>
+        <v>24840</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.06780128910778974</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.04276536400534032</v>
+        <v>0.04069065979943297</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.1098183393865109</v>
+        <v>0.1107126943840161</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>21</v>
@@ -2363,19 +2363,19 @@
         <v>21647</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>13429</v>
+        <v>14344</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>31289</v>
+        <v>33455</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.06241098362562489</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.03871909931606576</v>
+        <v>0.04135607185909696</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.09021100119242417</v>
+        <v>0.09645719405646133</v>
       </c>
     </row>
     <row r="28">
@@ -2707,19 +2707,19 @@
         <v>4217</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1054</v>
+        <v>1068</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>9642</v>
+        <v>9863</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.08801877526542558</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02199187642732862</v>
+        <v>0.02229194931146412</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2012529626079776</v>
+        <v>0.2058621597322825</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>10</v>
@@ -2728,19 +2728,19 @@
         <v>10578</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>5314</v>
+        <v>5542</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>19028</v>
+        <v>17141</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1075914642221458</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.05405062803291472</v>
+        <v>0.05636805176072034</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1935285234336833</v>
+        <v>0.1743454964327046</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>14</v>
@@ -2749,19 +2749,19 @@
         <v>14795</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>8346</v>
+        <v>8280</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>23428</v>
+        <v>23354</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1011788482491151</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05707655458789222</v>
+        <v>0.05662293244442225</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1602158534528489</v>
+        <v>0.1597065254138127</v>
       </c>
     </row>
     <row r="5">
@@ -2778,19 +2778,19 @@
         <v>5517</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2148</v>
+        <v>2110</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>11852</v>
+        <v>11172</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1151510067471707</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.04482646081958347</v>
+        <v>0.04404669839042005</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2473953619094467</v>
+        <v>0.2331928929475596</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>18</v>
@@ -2799,19 +2799,19 @@
         <v>19185</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>11748</v>
+        <v>12635</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>27839</v>
+        <v>27335</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1951291777848465</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1194839014886745</v>
+        <v>0.1285149304979748</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2831526242067454</v>
+        <v>0.2780258996539259</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>23</v>
@@ -2820,19 +2820,19 @@
         <v>24702</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>16262</v>
+        <v>17093</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>35193</v>
+        <v>34085</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1689258646772782</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.11121040229009</v>
+        <v>0.1168897166965614</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.240669244587803</v>
+        <v>0.2330954652512252</v>
       </c>
     </row>
     <row r="6">
@@ -2849,19 +2849,19 @@
         <v>36182</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>29319</v>
+        <v>29039</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>41751</v>
+        <v>41370</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.7552161575493799</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.6119705848877222</v>
+        <v>0.6061273406411067</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.8714588221723102</v>
+        <v>0.8635051060119492</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>59</v>
@@ -2870,19 +2870,19 @@
         <v>64251</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>54653</v>
+        <v>54094</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>73807</v>
+        <v>72751</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.6534909961685279</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.5558774997255336</v>
+        <v>0.5501897752053527</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.7506916744924791</v>
+        <v>0.7399456592508066</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>92</v>
@@ -2891,19 +2891,19 @@
         <v>100432</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>88307</v>
+        <v>88697</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>110895</v>
+        <v>111055</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.6868192933775839</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.6039026360963483</v>
+        <v>0.6065660396725558</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.7583695077353806</v>
+        <v>0.7594632474554526</v>
       </c>
     </row>
     <row r="7">
@@ -2923,7 +2923,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>7010</v>
+        <v>6759</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04161406043802388</v>
@@ -2932,7 +2932,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1463168086071675</v>
+        <v>0.1410854352173777</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>4</v>
@@ -2941,19 +2941,19 @@
         <v>4305</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1060</v>
+        <v>1167</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>9804</v>
+        <v>10827</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04378836182447978</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01077633501286022</v>
+        <v>0.01187257964053431</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.09971416377295349</v>
+        <v>0.110118006748705</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>6</v>
@@ -2962,19 +2962,19 @@
         <v>6299</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>2187</v>
+        <v>2159</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>12824</v>
+        <v>12832</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04307599369602277</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01495571759675365</v>
+        <v>0.0147629503301976</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.08769908873517368</v>
+        <v>0.0877567187124946</v>
       </c>
     </row>
     <row r="8">
@@ -3066,19 +3066,19 @@
         <v>5187</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1613</v>
+        <v>1938</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>10854</v>
+        <v>10408</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1261085387180468</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.03920051099957728</v>
+        <v>0.04711844407817452</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.263872920555649</v>
+        <v>0.2530236538801328</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>11</v>
@@ -3087,19 +3087,19 @@
         <v>11980</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>6366</v>
+        <v>6676</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>19842</v>
+        <v>20125</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1273871059156305</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.06769401327301863</v>
+        <v>0.07099202436835778</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2109850799490176</v>
+        <v>0.2139982207353486</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>16</v>
@@ -3108,19 +3108,19 @@
         <v>17168</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>10527</v>
+        <v>9927</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>26648</v>
+        <v>25720</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1269980440374022</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.07787047020561727</v>
+        <v>0.07343299189080431</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1971310414844191</v>
+        <v>0.1902664394693104</v>
       </c>
     </row>
     <row r="10">
@@ -3140,7 +3140,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>6487</v>
+        <v>6845</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0474111312729544</v>
@@ -3149,7 +3149,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1577079882212687</v>
+        <v>0.1664044059553543</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>17</v>
@@ -3158,19 +3158,19 @@
         <v>18280</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>11822</v>
+        <v>11689</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>27829</v>
+        <v>26826</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1943706570539826</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1257012161421799</v>
+        <v>0.124292424146728</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2959129150076891</v>
+        <v>0.2852432953955895</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>19</v>
@@ -3179,19 +3179,19 @@
         <v>20230</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>12965</v>
+        <v>13053</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>30463</v>
+        <v>29829</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1496515767960558</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0959100440910545</v>
+        <v>0.0965610878668076</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2253482081091146</v>
+        <v>0.2206578950718079</v>
       </c>
     </row>
     <row r="11">
@@ -3208,19 +3208,19 @@
         <v>31953</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>26026</v>
+        <v>25275</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>37116</v>
+        <v>36688</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7767910225194844</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6326890358286855</v>
+        <v>0.6144476196525797</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.902300436812034</v>
+        <v>0.8918841182400146</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>59</v>
@@ -3229,19 +3229,19 @@
         <v>62806</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>53105</v>
+        <v>53088</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>71439</v>
+        <v>71354</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6678257675371242</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5646780529370256</v>
+        <v>0.5645008349310578</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7596246320233587</v>
+        <v>0.7587247676800004</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>85</v>
@@ -3250,19 +3250,19 @@
         <v>94759</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>82809</v>
+        <v>83172</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>104892</v>
+        <v>104371</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.700983373054593</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6125853792261344</v>
+        <v>0.6152689933482939</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7759425533954576</v>
+        <v>0.7720923505121565</v>
       </c>
     </row>
     <row r="12">
@@ -3282,7 +3282,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>7136</v>
+        <v>7121</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.0496893074895144</v>
@@ -3291,7 +3291,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1734747336375017</v>
+        <v>0.1731098501310904</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>1</v>
@@ -3303,7 +3303,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>5880</v>
+        <v>4937</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.01041646949326281</v>
@@ -3312,7 +3312,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.06252054135044334</v>
+        <v>0.0525008823561279</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>3</v>
@@ -3321,19 +3321,19 @@
         <v>3024</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>8101</v>
+        <v>7917</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.02236700611194899</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.007138927315390562</v>
+        <v>0.007144220229867541</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.05992782576429551</v>
+        <v>0.05856410077627389</v>
       </c>
     </row>
     <row r="13">
@@ -3425,19 +3425,19 @@
         <v>7506</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3661</v>
+        <v>3254</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>13811</v>
+        <v>13856</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1873342951809792</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.09136576793843219</v>
+        <v>0.08120428174783967</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3446991929951135</v>
+        <v>0.3458302644405811</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>10</v>
@@ -3446,19 +3446,19 @@
         <v>12462</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>6262</v>
+        <v>6362</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>20639</v>
+        <v>20690</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2152280026398326</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1081512193750377</v>
+        <v>0.1098711972892755</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.356447606239833</v>
+        <v>0.3573357430690081</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>17</v>
@@ -3467,19 +3467,19 @@
         <v>19968</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>12954</v>
+        <v>12325</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>30602</v>
+        <v>30312</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2038199893120987</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1322271518308825</v>
+        <v>0.1258041853257294</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3123684543009731</v>
+        <v>0.3094026616677443</v>
       </c>
     </row>
     <row r="15">
@@ -3496,19 +3496,19 @@
         <v>4276</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1063</v>
+        <v>1109</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>9590</v>
+        <v>9926</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.1067180792328827</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.0265418985948289</v>
+        <v>0.02767348342539926</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2393596425103971</v>
+        <v>0.2477383481071687</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>11</v>
@@ -3517,19 +3517,19 @@
         <v>11988</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>6192</v>
+        <v>6314</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>19233</v>
+        <v>19381</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.2070361496059052</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1069488684668819</v>
+        <v>0.1090561598671045</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.3321775541346105</v>
+        <v>0.3347275376301913</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>15</v>
@@ -3538,19 +3538,19 @@
         <v>16264</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>9564</v>
+        <v>9751</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>25161</v>
+        <v>24974</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.166007903880013</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.09762642804923935</v>
+        <v>0.09953235232526952</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2568229080604543</v>
+        <v>0.2549222902539073</v>
       </c>
     </row>
     <row r="16">
@@ -3567,19 +3567,19 @@
         <v>28285</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>21674</v>
+        <v>21039</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>33529</v>
+        <v>33528</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.7059476255861381</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5409477270171018</v>
+        <v>0.5250954334997082</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8368165014394818</v>
+        <v>0.8368034093441737</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>29</v>
@@ -3588,19 +3588,19 @@
         <v>32375</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>24326</v>
+        <v>24016</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>40609</v>
+        <v>39606</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5591432185487072</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4201344696150445</v>
+        <v>0.4147781463791328</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7013503176033211</v>
+        <v>0.6840279484992066</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>54</v>
@@ -3609,19 +3609,19 @@
         <v>60661</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>50328</v>
+        <v>49886</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>70460</v>
+        <v>71155</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.6191835209905229</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5137155190023995</v>
+        <v>0.5092055970264366</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7192036200551668</v>
+        <v>0.7262973314623713</v>
       </c>
     </row>
     <row r="17">
@@ -3654,7 +3654,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>5975</v>
+        <v>6454</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.01859262920555499</v>
@@ -3663,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1031884948486389</v>
+        <v>0.1114745046306935</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5492</v>
+        <v>5506</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.0109885858173655</v>
@@ -3684,7 +3684,7 @@
         <v>0</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.05605924166634561</v>
+        <v>0.05619982066171655</v>
       </c>
     </row>
     <row r="18">
@@ -3779,7 +3779,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>5215</v>
+        <v>5300</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.0646828295195353</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3267808104598605</v>
+        <v>0.3321526506820816</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>6</v>
@@ -3797,19 +3797,19 @@
         <v>7961</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>3318</v>
+        <v>3415</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>13905</v>
+        <v>14247</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2827312662938402</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1178428084974521</v>
+        <v>0.121304730372303</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4938501257778494</v>
+        <v>0.5060187316752485</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>7</v>
@@ -3818,19 +3818,19 @@
         <v>8993</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>4014</v>
+        <v>3658</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>16047</v>
+        <v>16318</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2038513907170285</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.09099767739490208</v>
+        <v>0.08292252415688035</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3637664897600402</v>
+        <v>0.3698986709933237</v>
       </c>
     </row>
     <row r="20">
@@ -3850,7 +3850,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>5852</v>
+        <v>5020</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.06896484489813542</v>
@@ -3859,7 +3859,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3667141021316017</v>
+        <v>0.3145546146052153</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>3</v>
@@ -3868,19 +3868,19 @@
         <v>3342</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1038</v>
+        <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>8297</v>
+        <v>7977</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1186977408142391</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.03686227043956251</v>
+        <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2946699951839321</v>
+        <v>0.2833153645678226</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>4</v>
@@ -3892,16 +3892,16 @@
         <v>1078</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>9798</v>
+        <v>10236</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1007066710318986</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.02444110607330547</v>
+        <v>0.02442822402754059</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2221064181241162</v>
+        <v>0.2320431916352363</v>
       </c>
     </row>
     <row r="21">
@@ -3918,19 +3918,19 @@
         <v>11571</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>6179</v>
+        <v>6677</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>14858</v>
+        <v>14968</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.7251041283685938</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.3871903317869722</v>
+        <v>0.4183890204527951</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.9310704872884802</v>
+        <v>0.9379867623848274</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>16</v>
@@ -3939,19 +3939,19 @@
         <v>16853</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>11036</v>
+        <v>11008</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>22357</v>
+        <v>22271</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.5985709928919207</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.3919547463550591</v>
+        <v>0.390961801192986</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.7940288501624261</v>
+        <v>0.7909878623683161</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>26</v>
@@ -3960,19 +3960,19 @@
         <v>28425</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>21525</v>
+        <v>19608</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>35315</v>
+        <v>34538</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.6443448499779716</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.4879476783920281</v>
+        <v>0.4444852791876319</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.8005356955789149</v>
+        <v>0.7829226810402425</v>
       </c>
     </row>
     <row r="22">
@@ -3992,7 +3992,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>7810</v>
+        <v>7729</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1412481972137355</v>
@@ -4001,7 +4001,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.48940999774964</v>
+        <v>0.4843044031994431</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>0</v>
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>10722</v>
+        <v>11010</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.05109708827310134</v>
@@ -4035,7 +4035,7 @@
         <v>0</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2430458247825047</v>
+        <v>0.2495803141288073</v>
       </c>
     </row>
     <row r="23">
@@ -4127,19 +4127,19 @@
         <v>17942</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>10868</v>
+        <v>10666</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>26349</v>
+        <v>27066</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1236824995709365</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.07491847611841101</v>
+        <v>0.07352237096168295</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1816328695351896</v>
+        <v>0.1865710910369404</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>37</v>
@@ -4148,19 +4148,19 @@
         <v>42981</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>31409</v>
+        <v>31997</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>57235</v>
+        <v>56750</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1543735791609424</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1128104306136134</v>
+        <v>0.1149210713196307</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2055706071574265</v>
+        <v>0.2038288730989659</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>54</v>
@@ -4169,19 +4169,19 @@
         <v>60923</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>46390</v>
+        <v>46463</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>76582</v>
+        <v>78340</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1438601696131708</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1095427914748229</v>
+        <v>0.1097133772442596</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1808357620538377</v>
+        <v>0.1849873440530894</v>
       </c>
     </row>
     <row r="25">
@@ -4198,19 +4198,19 @@
         <v>12843</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>7435</v>
+        <v>6433</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>21863</v>
+        <v>21292</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.08853339800270305</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.05125481482284214</v>
+        <v>0.04434637881831999</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1507067615225572</v>
+        <v>0.1467694222073736</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>49</v>
@@ -4219,19 +4219,19 @@
         <v>52794</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>41602</v>
+        <v>40773</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>66609</v>
+        <v>68089</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1896199641261644</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1494190196944534</v>
+        <v>0.1464446972454969</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2392378539522872</v>
+        <v>0.2445528317764221</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>61</v>
@@ -4240,19 +4240,19 @@
         <v>65638</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>50313</v>
+        <v>51608</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>82470</v>
+        <v>81909</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1549921672669131</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1188064674019779</v>
+        <v>0.1218632706953091</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.194738920263187</v>
+        <v>0.1934137171269368</v>
       </c>
     </row>
     <row r="26">
@@ -4269,19 +4269,19 @@
         <v>107991</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>96115</v>
+        <v>95290</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>118153</v>
+        <v>118054</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.7444135470044192</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.662543809127739</v>
+        <v>0.6568570143387065</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8144637050029294</v>
+        <v>0.8137778384211389</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>163</v>
@@ -4290,19 +4290,19 @@
         <v>176285</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>159020</v>
+        <v>159435</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>193034</v>
+        <v>193245</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.6331583680775738</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.5711466987318186</v>
+        <v>0.572637548059839</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.693314144984603</v>
+        <v>0.694070932784347</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>257</v>
@@ -4311,19 +4311,19 @@
         <v>284277</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>265087</v>
+        <v>263792</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>304975</v>
+        <v>303683</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.6712694829680848</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6259573720701107</v>
+        <v>0.6228987390636292</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7201461811164996</v>
+        <v>0.7170936592705514</v>
       </c>
     </row>
     <row r="27">
@@ -4340,19 +4340,19 @@
         <v>6292</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>2093</v>
+        <v>2019</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>15750</v>
+        <v>15585</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.04337055542194124</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.0144257409816262</v>
+        <v>0.013915177011288</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1085719921216879</v>
+        <v>0.1074311878949166</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>6</v>
@@ -4361,19 +4361,19 @@
         <v>6361</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>2884</v>
+        <v>2184</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>12756</v>
+        <v>12727</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.02284808863531939</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.01035892010072773</v>
+        <v>0.007843884249836099</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.04581535125280549</v>
+        <v>0.04571102116110069</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>11</v>
@@ -4382,19 +4382,19 @@
         <v>12653</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>6439</v>
+        <v>6119</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>22184</v>
+        <v>22782</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.02987818015183138</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.0152040431558078</v>
+        <v>0.0144499129430116</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.0523838371443954</v>
+        <v>0.05379560439372164</v>
       </c>
     </row>
     <row r="28">
@@ -4726,19 +4726,19 @@
         <v>6372</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2796</v>
+        <v>2727</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>11364</v>
+        <v>11607</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.161366082476002</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0708004203099227</v>
+        <v>0.06905139089913695</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2877622027054426</v>
+        <v>0.2939142045517579</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>11</v>
@@ -4747,19 +4747,19 @@
         <v>13497</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>7550</v>
+        <v>7252</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>22763</v>
+        <v>22007</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1264962180111077</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.07076194985151209</v>
+        <v>0.06797000422314373</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.213332732053573</v>
+        <v>0.2062496734966993</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>18</v>
@@ -4768,19 +4768,19 @@
         <v>19870</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>12219</v>
+        <v>12466</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>29530</v>
+        <v>29340</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1359154529609214</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.08358137413401603</v>
+        <v>0.08527026881547639</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2019941561519509</v>
+        <v>0.2006954123366324</v>
       </c>
     </row>
     <row r="5">
@@ -4797,19 +4797,19 @@
         <v>3247</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>805</v>
+        <v>823</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>7249</v>
+        <v>7700</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.08222362396010673</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02038016841161658</v>
+        <v>0.02083858304395486</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1835660816090111</v>
+        <v>0.194989169733083</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>5</v>
@@ -4818,19 +4818,19 @@
         <v>6734</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>2474</v>
+        <v>2481</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>13948</v>
+        <v>13648</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.0631155048844295</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.02318853929001432</v>
+        <v>0.02325649021321016</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1307163098348637</v>
+        <v>0.1279108879348709</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>9</v>
@@ -4839,19 +4839,19 @@
         <v>9981</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>4461</v>
+        <v>5038</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>18530</v>
+        <v>18266</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.06827709257009491</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.03051274585113527</v>
+        <v>0.03446084157215655</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1267547396562859</v>
+        <v>0.1249427907719752</v>
       </c>
     </row>
     <row r="6">
@@ -4868,19 +4868,19 @@
         <v>29871</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>24528</v>
+        <v>24278</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>34231</v>
+        <v>33952</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.7564102935638912</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.6211175292681764</v>
+        <v>0.6147819143725555</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.8668263637616995</v>
+        <v>0.8597685686850821</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>59</v>
@@ -4889,19 +4889,19 @@
         <v>73247</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>62514</v>
+        <v>61728</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>82935</v>
+        <v>82223</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.6864727779301727</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.5858816142590932</v>
+        <v>0.5785099247419644</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.777263493283312</v>
+        <v>0.7705941465109584</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>92</v>
@@ -4910,19 +4910,19 @@
         <v>103118</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>89788</v>
+        <v>90350</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>113227</v>
+        <v>113456</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.7053646750358662</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.6141850898302856</v>
+        <v>0.6180285212089479</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.7745139287072713</v>
+        <v>0.7760789243941008</v>
       </c>
     </row>
     <row r="7">
@@ -4952,19 +4952,19 @@
         <v>13222</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>6907</v>
+        <v>6613</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>22542</v>
+        <v>23168</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1239154991742901</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06473535562779287</v>
+        <v>0.06197492862708531</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2112636375234482</v>
+        <v>0.217133331824012</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>11</v>
@@ -4973,19 +4973,19 @@
         <v>13222</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>7009</v>
+        <v>6720</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>23792</v>
+        <v>23647</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0904427794331175</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04794638165165163</v>
+        <v>0.04596532038950622</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1627430887515173</v>
+        <v>0.161755619470763</v>
       </c>
     </row>
     <row r="8">
@@ -5077,19 +5077,19 @@
         <v>3347</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>8561</v>
+        <v>8074</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.100320115255527</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.02678809314423059</v>
+        <v>0.02698166489271334</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2565957761671967</v>
+        <v>0.241983688482436</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>7</v>
@@ -5098,19 +5098,19 @@
         <v>9573</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4355</v>
+        <v>4205</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>19874</v>
+        <v>17851</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1321070303764395</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.06009385342382161</v>
+        <v>0.05802727525272808</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2742593977078108</v>
+        <v>0.2463431195014464</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>11</v>
@@ -5119,19 +5119,19 @@
         <v>12920</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>6763</v>
+        <v>6913</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>22976</v>
+        <v>22547</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1220856737936196</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.06390685177499859</v>
+        <v>0.0653278515652294</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2171101896876484</v>
+        <v>0.2130523965170926</v>
       </c>
     </row>
     <row r="10">
@@ -5151,7 +5151,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>4741</v>
+        <v>4770</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02874319273177981</v>
@@ -5160,7 +5160,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.142112407529449</v>
+        <v>0.1429767274928449</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>9</v>
@@ -5169,19 +5169,19 @@
         <v>10963</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>5847</v>
+        <v>5034</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>18627</v>
+        <v>19044</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1512888135210194</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.08068361377580544</v>
+        <v>0.06946232440516617</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.257045795288578</v>
+        <v>0.2628066664459375</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>10</v>
@@ -5190,19 +5190,19 @@
         <v>11922</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>6169</v>
+        <v>6179</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>20398</v>
+        <v>20325</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1126542571659724</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.05828967033516803</v>
+        <v>0.05838522233815367</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1927496940812735</v>
+        <v>0.1920626047843325</v>
       </c>
     </row>
     <row r="11">
@@ -5219,19 +5219,19 @@
         <v>28264</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>22932</v>
+        <v>23696</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>30966</v>
+        <v>31344</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8471510911596818</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6873290366312355</v>
+        <v>0.7102138086899574</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9281284456591211</v>
+        <v>0.9394677528961164</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>39</v>
@@ -5240,19 +5240,19 @@
         <v>47440</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>38299</v>
+        <v>37622</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>55760</v>
+        <v>55549</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6546712696826491</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5285292581969455</v>
+        <v>0.519180749920341</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7694895687305127</v>
+        <v>0.7665701075365988</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>71</v>
@@ -5261,19 +5261,19 @@
         <v>75704</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>65886</v>
+        <v>65538</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>85693</v>
+        <v>85199</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.715353752354578</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6225839792749752</v>
+        <v>0.6192959693743504</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8097451340243131</v>
+        <v>0.805073567954113</v>
       </c>
     </row>
     <row r="12">
@@ -5293,7 +5293,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3287</v>
+        <v>3947</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.02378560085301137</v>
@@ -5302,7 +5302,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.09850875835679608</v>
+        <v>0.1183107826857714</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>4</v>
@@ -5311,19 +5311,19 @@
         <v>4488</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1217</v>
+        <v>1239</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>10203</v>
+        <v>11185</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.06193288641989207</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01679489667698329</v>
+        <v>0.01709130326131826</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1408053649277681</v>
+        <v>0.1543513412338945</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>5</v>
@@ -5332,19 +5332,19 @@
         <v>5281</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1724</v>
+        <v>1949</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>11033</v>
+        <v>11990</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.04990631668582995</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01628942422988183</v>
+        <v>0.01841945740901688</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1042588660880731</v>
+        <v>0.1133022294636992</v>
       </c>
     </row>
     <row r="13">
@@ -5439,16 +5439,16 @@
         <v>1575</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>9175</v>
+        <v>9160</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1535665263053819</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.05388621374076231</v>
+        <v>0.05385547572334209</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3138108400234003</v>
+        <v>0.3132945006434674</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>10</v>
@@ -5457,19 +5457,19 @@
         <v>12689</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>6203</v>
+        <v>6682</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>21951</v>
+        <v>20941</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1991233594117081</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.09733834500902311</v>
+        <v>0.1048536686113302</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3444609601013196</v>
+        <v>0.3286133313645474</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>15</v>
@@ -5478,19 +5478,19 @@
         <v>17179</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>9959</v>
+        <v>10537</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>26712</v>
+        <v>27021</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1847954582467697</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1071272213482543</v>
+        <v>0.1133470567092774</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2873438086924432</v>
+        <v>0.2906682492850164</v>
       </c>
     </row>
     <row r="15">
@@ -5510,7 +5510,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>4232</v>
+        <v>3688</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.02714279219215444</v>
@@ -5519,7 +5519,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.144748094780756</v>
+        <v>0.1261503067409306</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>2</v>
@@ -5531,7 +5531,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>7747</v>
+        <v>7630</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.03863056613018191</v>
@@ -5540,7 +5540,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1215634207462208</v>
+        <v>0.1197267706862713</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>3</v>
@@ -5549,19 +5549,19 @@
         <v>3255</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>819</v>
+        <v>798</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>9503</v>
+        <v>9600</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.03501759133878105</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.008808650162540059</v>
+        <v>0.008588359317225727</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1022225131290456</v>
+        <v>0.103271005549391</v>
       </c>
     </row>
     <row r="16">
@@ -5578,19 +5578,19 @@
         <v>22894</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>17891</v>
+        <v>18156</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>26719</v>
+        <v>26509</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.7830595130471087</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.6119374195700777</v>
+        <v>0.6210101368439273</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9138922499295875</v>
+        <v>0.906680705432819</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>37</v>
@@ -5599,19 +5599,19 @@
         <v>48574</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>40112</v>
+        <v>39653</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>55726</v>
+        <v>55408</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.76224607445811</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.6294472817162513</v>
+        <v>0.6222542787359581</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8744701187578863</v>
+        <v>0.8694860141343109</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>62</v>
@@ -5620,19 +5620,19 @@
         <v>71468</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>61575</v>
+        <v>60668</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>79169</v>
+        <v>79178</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.7687920275165608</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.6623642235960898</v>
+        <v>0.6526101590562932</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8516252439589831</v>
+        <v>0.8517250083533094</v>
       </c>
     </row>
     <row r="17">
@@ -5652,7 +5652,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>5123</v>
+        <v>5217</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.03623116845535491</v>
@@ -5661,7 +5661,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1752225980265545</v>
+        <v>0.1784520040056634</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>0</v>
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6304</v>
+        <v>6216</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.01139492289788843</v>
@@ -5695,7 +5695,7 @@
         <v>0</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.06781064800867419</v>
+        <v>0.06687117690032544</v>
       </c>
     </row>
     <row r="18">
@@ -5787,19 +5787,19 @@
         <v>3412</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>7045</v>
+        <v>7144</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2026983912854176</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.05154583487751731</v>
+        <v>0.05150583456322219</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4185217236605661</v>
+        <v>0.4244039446410237</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>6</v>
@@ -5808,19 +5808,19 @@
         <v>6711</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>3013</v>
+        <v>3037</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>12693</v>
+        <v>11664</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2874980527827625</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1290978025782022</v>
+        <v>0.1301147821416127</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.5437769849321715</v>
+        <v>0.4997031649864633</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>10</v>
@@ -5829,19 +5829,19 @@
         <v>10123</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>5225</v>
+        <v>5162</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>16628</v>
+        <v>15994</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2519682248388625</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1300646127529129</v>
+        <v>0.1284820180084356</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4139010087776314</v>
+        <v>0.398103908254535</v>
       </c>
     </row>
     <row r="20">
@@ -5861,7 +5861,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>3353</v>
+        <v>4146</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.04761769840006035</v>
@@ -5870,7 +5870,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1992094247637026</v>
+        <v>0.2462812746563085</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1</v>
@@ -5882,7 +5882,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>5949</v>
+        <v>6593</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.05162433315613194</v>
@@ -5891,7 +5891,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2548833661456361</v>
+        <v>0.2824391152935781</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>2</v>
@@ -5903,7 +5903,7 @@
         <v>0</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>6943</v>
+        <v>6254</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.0499456113192325</v>
@@ -5912,7 +5912,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1728251194050018</v>
+        <v>0.1556598188758245</v>
       </c>
     </row>
     <row r="21">
@@ -5929,19 +5929,19 @@
         <v>12619</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>8857</v>
+        <v>8962</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>15198</v>
+        <v>15224</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.7496839103145221</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.5261632706065101</v>
+        <v>0.5323874877722024</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.9028420252240525</v>
+        <v>0.9044397068524311</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>10</v>
@@ -5950,19 +5950,19 @@
         <v>12108</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>7050</v>
+        <v>7296</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>16875</v>
+        <v>16695</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.5187369619792197</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.3020317319470823</v>
+        <v>0.3125697633049737</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.7229519198172566</v>
+        <v>0.7152367310132678</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>24</v>
@@ -5971,19 +5971,19 @@
         <v>24728</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>17941</v>
+        <v>17839</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>30385</v>
+        <v>30043</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.6155003828895611</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.4465738190513022</v>
+        <v>0.4440369869253913</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.7563174100997622</v>
+        <v>0.7478121198181794</v>
       </c>
     </row>
     <row r="22">
@@ -6013,19 +6013,19 @@
         <v>3318</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1063</v>
+        <v>1065</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>7874</v>
+        <v>8014</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1421406520818859</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.04554219172702547</v>
+        <v>0.04563648614298979</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.337331682851908</v>
+        <v>0.3433285402510933</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>3</v>
@@ -6034,19 +6034,19 @@
         <v>3318</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1071</v>
+        <v>1074</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>8739</v>
+        <v>7893</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.08258578095234392</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02666270735683447</v>
+        <v>0.02672178447466145</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2175333417855338</v>
+        <v>0.1964583768795779</v>
       </c>
     </row>
     <row r="23">
@@ -6138,19 +6138,19 @@
         <v>17621</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>11483</v>
+        <v>11775</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>26135</v>
+        <v>25061</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1481724282295947</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.09655370477604701</v>
+        <v>0.09901517937474597</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2197611608467834</v>
+        <v>0.2107317059067226</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>34</v>
@@ -6159,19 +6159,19 @@
         <v>42470</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>29972</v>
+        <v>31050</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>57265</v>
+        <v>57206</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1595233531913524</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1125775029633722</v>
+        <v>0.116626549511962</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2150957015095535</v>
+        <v>0.2148730511638504</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>54</v>
@@ -6180,19 +6180,19 @@
         <v>60091</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>46051</v>
+        <v>45791</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>77004</v>
+        <v>76115</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1560185529344521</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1195651839633806</v>
+        <v>0.1188891548206714</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1999289127346847</v>
+        <v>0.197621300208317</v>
       </c>
     </row>
     <row r="25">
@@ -6209,19 +6209,19 @@
         <v>5801</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>2541</v>
+        <v>2402</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>11478</v>
+        <v>11097</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.0487800128541978</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02136812978403984</v>
+        <v>0.02019669119784498</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.09651842242851419</v>
+        <v>0.09331063296919273</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>17</v>
@@ -6230,19 +6230,19 @@
         <v>21364</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>13256</v>
+        <v>12504</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>33594</v>
+        <v>32656</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.08024652027362927</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.04979269791107442</v>
+        <v>0.0469682882005497</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1261816099910567</v>
+        <v>0.1226614935513746</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>24</v>
@@ -6251,19 +6251,19 @@
         <v>27165</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>17757</v>
+        <v>17437</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>39783</v>
+        <v>39420</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.07053067564784476</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.04610278593762499</v>
+        <v>0.04527373841336026</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1032910160731697</v>
+        <v>0.1023474311746469</v>
       </c>
     </row>
     <row r="26">
@@ -6280,19 +6280,19 @@
         <v>93649</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>84701</v>
+        <v>84917</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>101693</v>
+        <v>100535</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.7874671431862055</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7122280267561688</v>
+        <v>0.7140411318733152</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8551120467576294</v>
+        <v>0.8453684810287894</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>145</v>
@@ -6301,19 +6301,19 @@
         <v>181370</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>163587</v>
+        <v>163464</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>197795</v>
+        <v>197125</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.6812476566108794</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.614453237194636</v>
+        <v>0.6139904133429441</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7429422095370071</v>
+        <v>0.7404259945098174</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>249</v>
@@ -6322,19 +6322,19 @@
         <v>275018</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>255172</v>
+        <v>255021</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>292042</v>
+        <v>293051</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.714044815000284</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6625187004222434</v>
+        <v>0.6621261533809748</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7582452674694594</v>
+        <v>0.7608651741007012</v>
       </c>
     </row>
     <row r="27">
@@ -6354,7 +6354,7 @@
         <v>0</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>6561</v>
+        <v>6001</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.01558041573000199</v>
@@ -6363,7 +6363,7 @@
         <v>0</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.0551666816934069</v>
+        <v>0.05046175692688848</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>18</v>
@@ -6372,19 +6372,19 @@
         <v>21028</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>12869</v>
+        <v>13523</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>32346</v>
+        <v>32834</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.07898246992413903</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.04833930006609729</v>
+        <v>0.05079565481780679</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.121495968301603</v>
+        <v>0.1233279778666901</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>20</v>
@@ -6393,19 +6393,19 @@
         <v>22881</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>14722</v>
+        <v>14110</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>35276</v>
+        <v>33653</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.05940595641741905</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.03822242385572705</v>
+        <v>0.03663553701345384</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.09158929820268286</v>
+        <v>0.08737534391260635</v>
       </c>
     </row>
     <row r="28">
@@ -6737,19 +6737,19 @@
         <v>3474</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>982</v>
+        <v>1047</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>7562</v>
+        <v>8541</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1284177593166206</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03628444541182527</v>
+        <v>0.03872013523702662</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2795382626209772</v>
+        <v>0.3157300380155715</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>22</v>
@@ -6758,19 +6758,19 @@
         <v>11172</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>6935</v>
+        <v>7756</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>16414</v>
+        <v>16899</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1301269225663214</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.08077231872856631</v>
+        <v>0.09034227106021862</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.191183773799234</v>
+        <v>0.1968295031575631</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>26</v>
@@ -6779,19 +6779,19 @@
         <v>14646</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>9848</v>
+        <v>9603</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>20892</v>
+        <v>21138</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.129717430789215</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.08722122225891403</v>
+        <v>0.08505585655474962</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1850372289011302</v>
+        <v>0.1872208955175831</v>
       </c>
     </row>
     <row r="5">
@@ -6808,19 +6808,19 @@
         <v>4674</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1929</v>
+        <v>2056</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>8476</v>
+        <v>8729</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1727893495691721</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.07132483091304496</v>
+        <v>0.07600811516779411</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3133423844251629</v>
+        <v>0.3226781813981507</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>48</v>
@@ -6829,19 +6829,19 @@
         <v>24781</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>18713</v>
+        <v>19368</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>31663</v>
+        <v>31494</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2886328397112877</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2179627091190593</v>
+        <v>0.2255828235892349</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3687893492859387</v>
+        <v>0.3668184158292083</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>55</v>
@@ -6850,19 +6850,19 @@
         <v>29455</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>23432</v>
+        <v>22873</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>36867</v>
+        <v>36394</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.2608783483525512</v>
+        <v>0.2608783483525511</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2075341396864179</v>
+        <v>0.2025873417813988</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3265297391548593</v>
+        <v>0.3223348621441157</v>
       </c>
     </row>
     <row r="6">
@@ -6879,19 +6879,19 @@
         <v>17168</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>12816</v>
+        <v>12324</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>21126</v>
+        <v>20855</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.6346455085671816</v>
+        <v>0.6346455085671815</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.4737714874121203</v>
+        <v>0.4555939673517945</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.7809831258828479</v>
+        <v>0.7709689786481132</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>80</v>
@@ -6900,19 +6900,19 @@
         <v>44284</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>36925</v>
+        <v>37827</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>51568</v>
+        <v>51557</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.5157944780958207</v>
+        <v>0.5157944780958206</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.4300849304209176</v>
+        <v>0.4405895371753426</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.6006369949496972</v>
+        <v>0.6005007494245062</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>105</v>
@@ -6921,19 +6921,19 @@
         <v>61451</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>54446</v>
+        <v>53581</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>69454</v>
+        <v>68909</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.544269534347558</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.4822262948473628</v>
+        <v>0.4745656758786657</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.6151496448380115</v>
+        <v>0.6103204341636607</v>
       </c>
     </row>
     <row r="7">
@@ -6950,19 +6950,19 @@
         <v>1735</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>4271</v>
+        <v>4781</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.06414738254702587</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01785670893574089</v>
+        <v>0.01771771826762489</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1578740378450261</v>
+        <v>0.1767277500581392</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>10</v>
@@ -6971,19 +6971,19 @@
         <v>5619</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>2726</v>
+        <v>3134</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>9212</v>
+        <v>10215</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.06544575962657026</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03175459239621828</v>
+        <v>0.03649955655961717</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1072994642813434</v>
+        <v>0.1189824623095955</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>13</v>
@@ -6992,19 +6992,19 @@
         <v>7354</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>4132</v>
+        <v>4274</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>12124</v>
+        <v>12642</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0651346865106758</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03659617279048403</v>
+        <v>0.03785763717751081</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1073835385996063</v>
+        <v>0.111965613591929</v>
       </c>
     </row>
     <row r="8">
@@ -7096,19 +7096,19 @@
         <v>5434</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>2487</v>
+        <v>2433</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>9828</v>
+        <v>10059</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.09875186033576595</v>
+        <v>0.09875186033576594</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.04519802292831944</v>
+        <v>0.04421594434591979</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1786106343037916</v>
+        <v>0.182810163563485</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>26</v>
@@ -7117,19 +7117,19 @@
         <v>15588</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>10158</v>
+        <v>10137</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>22468</v>
+        <v>21850</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1263392764921463</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.08233009432148682</v>
+        <v>0.08216323330198251</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1821013331838524</v>
+        <v>0.1770926521051283</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>34</v>
@@ -7138,19 +7138,19 @@
         <v>21022</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>15057</v>
+        <v>14443</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>29525</v>
+        <v>29614</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.1178305429548198</v>
+        <v>0.1178305429548197</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.08439859131689138</v>
+        <v>0.08095634140413194</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1654926964033145</v>
+        <v>0.1659911513605582</v>
       </c>
     </row>
     <row r="10">
@@ -7167,19 +7167,19 @@
         <v>12971</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>7773</v>
+        <v>8669</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>18305</v>
+        <v>19410</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.235724122432667</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1412616749856053</v>
+        <v>0.1575373018839436</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3326573641203699</v>
+        <v>0.3527390482256312</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>59</v>
@@ -7188,19 +7188,19 @@
         <v>28114</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>21534</v>
+        <v>22100</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>34953</v>
+        <v>35321</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.227864100624966</v>
+        <v>0.2278641006249659</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1745360301923629</v>
+        <v>0.1791209317868479</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2832942296613398</v>
+        <v>0.2862755567451223</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>80</v>
@@ -7209,19 +7209,19 @@
         <v>41085</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>32448</v>
+        <v>32750</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>49106</v>
+        <v>49756</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.230288351985811</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.181875461669055</v>
+        <v>0.1835697085435373</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2752478288738967</v>
+        <v>0.2788925837337306</v>
       </c>
     </row>
     <row r="11">
@@ -7238,19 +7238,19 @@
         <v>33723</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>28161</v>
+        <v>27564</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>39556</v>
+        <v>39221</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.6128525459905257</v>
+        <v>0.6128525459905256</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5117738777506652</v>
+        <v>0.5009264017977935</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7188541637712068</v>
+        <v>0.7127641978323969</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>142</v>
@@ -7259,19 +7259,19 @@
         <v>74919</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>66996</v>
+        <v>66646</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>83014</v>
+        <v>83052</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6072164885201478</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5430011416881343</v>
+        <v>0.5401662432088247</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6728277373005374</v>
+        <v>0.6731342673320504</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>197</v>
@@ -7280,19 +7280,19 @@
         <v>108641</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>98295</v>
+        <v>98395</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>118251</v>
+        <v>118343</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.6089548068513994</v>
+        <v>0.6089548068513992</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5509623555819153</v>
+        <v>0.5515220591474165</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6628201770711567</v>
+        <v>0.6633360564408433</v>
       </c>
     </row>
     <row r="12">
@@ -7309,19 +7309,19 @@
         <v>2898</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>925</v>
+        <v>888</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>7697</v>
+        <v>7738</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.0526714712410414</v>
+        <v>0.05267147124104139</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.01680997690270906</v>
+        <v>0.01614294379212117</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1398841972627292</v>
+        <v>0.1406196538313872</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>10</v>
@@ -7330,19 +7330,19 @@
         <v>4760</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>2361</v>
+        <v>2485</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>8342</v>
+        <v>8777</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.03858013436274006</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01913668035109288</v>
+        <v>0.02014237913020145</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.06761548237479378</v>
+        <v>0.0711354204824734</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>14</v>
@@ -7351,19 +7351,19 @@
         <v>7658</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>4072</v>
+        <v>4356</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>12760</v>
+        <v>12990</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.04292629820796989</v>
+        <v>0.04292629820796988</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.02282628483992074</v>
+        <v>0.0244160903468903</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.07152346743260139</v>
+        <v>0.07281237539462175</v>
       </c>
     </row>
     <row r="13">
@@ -7455,19 +7455,19 @@
         <v>6280</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3232</v>
+        <v>3164</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>10371</v>
+        <v>10403</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1717103316505016</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.08837927557727472</v>
+        <v>0.08649407544836249</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2835654122504556</v>
+        <v>0.2844373537551543</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>18</v>
@@ -7476,19 +7476,19 @@
         <v>9906</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>5924</v>
+        <v>6078</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>15490</v>
+        <v>15530</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1159841193668281</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.06935709329431178</v>
+        <v>0.07115926538380529</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1813622487555983</v>
+        <v>0.1818344705172838</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>30</v>
@@ -7497,19 +7497,19 @@
         <v>16186</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>11135</v>
+        <v>11386</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>22739</v>
+        <v>22253</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1326930259317318</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.09128473620050415</v>
+        <v>0.09333930096060464</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1864060820803589</v>
+        <v>0.1824215453875324</v>
       </c>
     </row>
     <row r="15">
@@ -7526,19 +7526,19 @@
         <v>8385</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>4984</v>
+        <v>4871</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>13510</v>
+        <v>14068</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.2292584438527262</v>
+        <v>0.2292584438527263</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.136269269125987</v>
+        <v>0.1331743450143769</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3693707589729456</v>
+        <v>0.3846422169277531</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>43</v>
@@ -7547,19 +7547,19 @@
         <v>23319</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>17200</v>
+        <v>17086</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>29886</v>
+        <v>29711</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>0.2730319862896326</v>
+        <v>0.2730319862896327</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2013892596441158</v>
+        <v>0.2000536892023589</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.3499259081154473</v>
+        <v>0.3478703202631839</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>56</v>
@@ -7568,19 +7568,19 @@
         <v>31704</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>24317</v>
+        <v>24786</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>39764</v>
+        <v>39592</v>
       </c>
       <c r="U15" s="6" t="n">
-        <v>0.2599069594733492</v>
+        <v>0.2599069594733493</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1993484479190868</v>
+        <v>0.203193034907809</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3259784930145551</v>
+        <v>0.3245633995770543</v>
       </c>
     </row>
     <row r="16">
@@ -7597,19 +7597,19 @@
         <v>21576</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>16548</v>
+        <v>16560</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>25802</v>
+        <v>26150</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.5899123094946781</v>
+        <v>0.5899123094946782</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.452430887583913</v>
+        <v>0.4527640693253583</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.7054470905332151</v>
+        <v>0.7149735839430879</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>93</v>
@@ -7618,19 +7618,19 @@
         <v>49340</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>42526</v>
+        <v>42573</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>55663</v>
+        <v>55997</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5776920025253744</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4979114958248004</v>
+        <v>0.4984612094998948</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6517321084587073</v>
+        <v>0.6556382427828078</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>127</v>
@@ -7639,19 +7639,19 @@
         <v>70916</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>61773</v>
+        <v>62458</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>79139</v>
+        <v>78838</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.581356130392259</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5064023695984321</v>
+        <v>0.5120219788955942</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6487649995841718</v>
+        <v>0.6462947171425384</v>
       </c>
     </row>
     <row r="17">
@@ -7671,16 +7671,16 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1735</v>
+        <v>1872</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.009118915002094085</v>
+        <v>0.009118915002094087</v>
       </c>
       <c r="H17" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.04742313342666935</v>
+        <v>0.05117664538735176</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>5</v>
@@ -7689,19 +7689,19 @@
         <v>2843</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>871</v>
+        <v>902</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>6241</v>
+        <v>6194</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.03329189181816476</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01020089268058869</v>
+        <v>0.01055756273110259</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.0730704771467526</v>
+        <v>0.07252228883517174</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6</v>
@@ -7710,19 +7710,19 @@
         <v>3177</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1337</v>
+        <v>1197</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6793</v>
+        <v>7249</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.02604388420265988</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01095678977445841</v>
+        <v>0.009809233013024337</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.05568715251258451</v>
+        <v>0.05942214884651784</v>
       </c>
     </row>
     <row r="18">
@@ -7814,19 +7814,19 @@
         <v>6375</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>2975</v>
+        <v>3405</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>11109</v>
+        <v>11620</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1281848950565838</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.05981052140031572</v>
+        <v>0.06846339537889169</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2233603192907774</v>
+        <v>0.233639429628978</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>22</v>
@@ -7835,19 +7835,19 @@
         <v>13639</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>9133</v>
+        <v>8968</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>19854</v>
+        <v>20065</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2408272816742208</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.161263282983663</v>
+        <v>0.1583466636093657</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3505530057520755</v>
+        <v>0.3542829012935239</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>32</v>
@@ -7856,19 +7856,19 @@
         <v>20015</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>14365</v>
+        <v>13511</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>28361</v>
+        <v>27952</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1881596014913972</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.135050717070926</v>
+        <v>0.1270187498786447</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2666264300432467</v>
+        <v>0.2627788886283023</v>
       </c>
     </row>
     <row r="20">
@@ -7885,19 +7885,19 @@
         <v>6318</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>3026</v>
+        <v>3060</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>11514</v>
+        <v>11113</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.1270349569163617</v>
+        <v>0.1270349569163618</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.06083432251992221</v>
+        <v>0.0615188924802453</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2315154895727676</v>
+        <v>0.2234408078829667</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>20</v>
@@ -7906,19 +7906,19 @@
         <v>9774</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>6019</v>
+        <v>6068</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>14270</v>
+        <v>14439</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1725695235811295</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.106283100621841</v>
+        <v>0.1071350767627108</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2519597486628065</v>
+        <v>0.2549424086561303</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>29</v>
@@ -7927,19 +7927,19 @@
         <v>16092</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>11082</v>
+        <v>11027</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>23013</v>
+        <v>23322</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.151279136663955</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1041831196678203</v>
+        <v>0.1036626205813893</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2163448950075924</v>
+        <v>0.2192558976603456</v>
       </c>
     </row>
     <row r="21">
@@ -7956,19 +7956,19 @@
         <v>32924</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>26284</v>
+        <v>26891</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>38491</v>
+        <v>37759</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.6619861970409729</v>
+        <v>0.6619861970409731</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.5284821658425281</v>
+        <v>0.5406836641926835</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.7739170800882648</v>
+        <v>0.7592111394326994</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>55</v>
@@ -7977,19 +7977,19 @@
         <v>30114</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>24274</v>
+        <v>24253</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>35306</v>
+        <v>35108</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.5317042599704552</v>
+        <v>0.5317042599704551</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.4286019010512737</v>
+        <v>0.4282275370786812</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.6233814932977769</v>
+        <v>0.6198796861432266</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>100</v>
@@ -7998,19 +7998,19 @@
         <v>63038</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>53811</v>
+        <v>55205</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>70436</v>
+        <v>71339</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.5926195832449926</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.5058849400265207</v>
+        <v>0.518986033871712</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.6621733774860246</v>
+        <v>0.6706593409249015</v>
       </c>
     </row>
     <row r="22">
@@ -8027,19 +8027,19 @@
         <v>4118</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1605</v>
+        <v>1489</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>8722</v>
+        <v>8597</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.08279395098608151</v>
+        <v>0.08279395098608153</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.032276712450375</v>
+        <v>0.0299350588583443</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1753694465318968</v>
+        <v>0.1728494952209527</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>5</v>
@@ -8048,19 +8048,19 @@
         <v>3109</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1221</v>
+        <v>1209</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>6782</v>
+        <v>6857</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.05489893477419456</v>
+        <v>0.05489893477419455</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02155982481694969</v>
+        <v>0.02135256769248874</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1197462426250778</v>
+        <v>0.1210696032521906</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>11</v>
@@ -8069,19 +8069,19 @@
         <v>7227</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>3778</v>
+        <v>3655</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>12322</v>
+        <v>12321</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.06794167859965526</v>
+        <v>0.06794167859965528</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.03551462402963231</v>
+        <v>0.03436363002860519</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1158388396414409</v>
+        <v>0.1158318026386653</v>
       </c>
     </row>
     <row r="23">
@@ -8173,19 +8173,19 @@
         <v>21563</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>15729</v>
+        <v>15377</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>29102</v>
+        <v>29648</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.1280583738896612</v>
+        <v>0.1280583738896613</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.09341202295590226</v>
+        <v>0.09132106588107901</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1728256484863574</v>
+        <v>0.176070047158473</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>88</v>
@@ -8194,19 +8194,19 @@
         <v>50305</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>40096</v>
+        <v>40546</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>61683</v>
+        <v>61017</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1432058015935492</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1141425892947472</v>
+        <v>0.1154238400163671</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1755940229351495</v>
+        <v>0.1736991072211877</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>122</v>
@@ -8215,19 +8215,19 @@
         <v>71869</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>59562</v>
+        <v>60296</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>84574</v>
+        <v>86043</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1382975981777976</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1146156345526159</v>
+        <v>0.1160290172344297</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1627466687107934</v>
+        <v>0.1655725044705064</v>
       </c>
     </row>
     <row r="25">
@@ -8244,19 +8244,19 @@
         <v>32348</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>24613</v>
+        <v>23701</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>41448</v>
+        <v>40539</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1921066629284983</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1461704890861168</v>
+        <v>0.1407503600405565</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2461455384353317</v>
+        <v>0.240751728253064</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>170</v>
@@ -8265,19 +8265,19 @@
         <v>85987</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>75366</v>
+        <v>74546</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>99106</v>
+        <v>98369</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.244783356461437</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2145471994438049</v>
+        <v>0.2122113567015296</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2821274947644604</v>
+        <v>0.2800294923144759</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>220</v>
@@ -8286,19 +8286,19 @@
         <v>118336</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>103886</v>
+        <v>103812</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>134738</v>
+        <v>134186</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2277145886030825</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1999080493929968</v>
+        <v>0.1997673101251025</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2592775663714713</v>
+        <v>0.2582157234042355</v>
       </c>
     </row>
     <row r="26">
@@ -8315,19 +8315,19 @@
         <v>105391</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>95013</v>
+        <v>94660</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>115036</v>
+        <v>115765</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.6258829266070132</v>
+        <v>0.6258829266070131</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.5642533015684089</v>
+        <v>0.562160075917528</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.6831634704767757</v>
+        <v>0.6874946392991541</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>370</v>
@@ -8336,19 +8336,19 @@
         <v>198656</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>183380</v>
+        <v>184640</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>211171</v>
+        <v>210998</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.5655192713444667</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.5220349083156872</v>
+        <v>0.525621262365231</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.6011478353933326</v>
+        <v>0.6006534929932974</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>529</v>
@@ -8357,19 +8357,19 @@
         <v>304046</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>286246</v>
+        <v>287384</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>321004</v>
+        <v>319780</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.5850788364890381</v>
+        <v>0.5850788364890382</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.5508255632565003</v>
+        <v>0.5530163766402957</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.6177118097251326</v>
+        <v>0.6153550041308813</v>
       </c>
     </row>
     <row r="27">
@@ -8386,19 +8386,19 @@
         <v>9085</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>5152</v>
+        <v>5363</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>15094</v>
+        <v>15275</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.05395203657482744</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.03059719818082785</v>
+        <v>0.03185048324760478</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.08963925908394541</v>
+        <v>0.09071297942199472</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>30</v>
@@ -8407,19 +8407,19 @@
         <v>16332</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>11449</v>
+        <v>10968</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>23176</v>
+        <v>23377</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.046491570600547</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.03259326722162579</v>
+        <v>0.03122400983424361</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.06597474522749738</v>
+        <v>0.06654811763649779</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>44</v>
@@ -8428,19 +8428,19 @@
         <v>25416</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>18285</v>
+        <v>18968</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>33819</v>
+        <v>33647</v>
       </c>
       <c r="U27" s="6" t="n">
-        <v>0.04890897673008167</v>
+        <v>0.04890897673008168</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.03518645044553508</v>
+        <v>0.03650017434603961</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.06507874112226363</v>
+        <v>0.06474818479905659</v>
       </c>
     </row>
     <row r="28">
